--- a/src/main/groovy/projects/gecco/crf/GroovyGenerator/Medication/Therapies/values_Therapies.xlsx
+++ b/src/main/groovy/projects/gecco/crf/GroovyGenerator/Medication/Therapies/values_Therapies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mario Macedo\IdeaProjects\kairos-fhir-dsl-mapping-example\src\main\groovy\projects\gecco\crf\GroovyGenerator\Medication\Therapies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86637C9-4FE4-4FA3-840F-971F45F933B8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E9D5BB-C6EC-4179-B3D3-4C5A3284ABFD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,9 +223,6 @@
     <t>darunavir</t>
   </si>
   <si>
-    <t>korticosteroid</t>
-  </si>
-  <si>
     <t>atazanavir</t>
   </si>
   <si>
@@ -289,21 +286,12 @@
     <t>Calcifediol</t>
   </si>
   <si>
-    <t>calcifedoil</t>
-  </si>
-  <si>
-    <t>sarimulab</t>
-  </si>
-  <si>
     <t>cni</t>
   </si>
   <si>
     <t>anti_tnf</t>
   </si>
   <si>
-    <t>interferon</t>
-  </si>
-  <si>
     <t>A12CB</t>
   </si>
   <si>
@@ -334,9 +322,6 @@
     <t>Interleukin-Inhibitoren</t>
   </si>
   <si>
-    <t>ii1_receptor</t>
-  </si>
-  <si>
     <t>L04AB</t>
   </si>
   <si>
@@ -412,10 +397,25 @@
     <t>J05AE08</t>
   </si>
   <si>
-    <t>S02B</t>
-  </si>
-  <si>
-    <t>CORTICOSTEROIDE</t>
+    <t>J05AAB16</t>
+  </si>
+  <si>
+    <t>Remdesivir</t>
+  </si>
+  <si>
+    <t>sarilumab</t>
+  </si>
+  <si>
+    <t>il1_receptor</t>
+  </si>
+  <si>
+    <t>corticosteroid</t>
+  </si>
+  <si>
+    <t>interferone</t>
+  </si>
+  <si>
+    <t>calcifediol</t>
   </si>
 </sst>
 </file>
@@ -1718,19 +1718,19 @@
   <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="44.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="33.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="27.6640625" style="1" customWidth="1"/>
     <col min="10" max="11" width="8.88671875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="1"/>
@@ -1747,10 +1747,10 @@
         <v>4</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>1</v>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>26</v>
@@ -1771,12 +1771,8 @@
       <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>130</v>
-      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="8" t="s">
         <v>51</v>
       </c>
@@ -1787,7 +1783,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>27</v>
@@ -1796,7 +1792,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>50</v>
@@ -1820,10 +1816,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>52</v>
@@ -1844,10 +1840,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>53</v>
@@ -1867,10 +1863,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>54</v>
@@ -1891,10 +1887,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>55</v>
@@ -1915,10 +1911,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>56</v>
@@ -1939,10 +1935,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>57</v>
@@ -1963,10 +1959,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>58</v>
@@ -1978,7 +1974,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>35</v>
@@ -1986,10 +1982,14 @@
       <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="F11" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>36</v>
@@ -2007,13 +2007,13 @@
         <v>15</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>37</v>
@@ -2031,13 +2031,13 @@
         <v>16</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>38</v>
@@ -2055,13 +2055,13 @@
         <v>17</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>39</v>
@@ -2079,13 +2079,13 @@
         <v>18</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -2094,7 +2094,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>40</v>
@@ -2103,10 +2103,10 @@
         <v>19</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>48</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>41</v>
@@ -2127,13 +2127,13 @@
         <v>20</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>42</v>
@@ -2151,13 +2151,13 @@
         <v>21</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>43</v>
@@ -2175,13 +2175,13 @@
         <v>22</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>44</v>
@@ -2199,13 +2199,13 @@
         <v>23</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>45</v>
@@ -2223,10 +2223,10 @@
         <v>24</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>47</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>46</v>
@@ -2247,13 +2247,13 @@
         <v>25</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
